--- a/templates/check_paper1_registration_criteria_confirmation_formtemplate_R6.xlsx
+++ b/templates/check_paper1_registration_criteria_confirmation_formtemplate_R6.xlsx
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
